--- a/data/amplia/CIFRAS_PROJECT_AMPLIA.xlsx
+++ b/data/amplia/CIFRAS_PROJECT_AMPLIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\REMESAS_PIB\data\amplia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39C692A-3388-4064-AF68-5109B712B738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944D778C-C55B-4F1F-9E5A-5AF62F0AF11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ED95E59D-8F45-4977-B189-159CD06838E0}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="20616" windowHeight="11016" xr2:uid="{ED95E59D-8F45-4977-B189-159CD06838E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>PIB</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>TIEMPO</t>
+  </si>
+  <si>
+    <t>INGRESO ER CAPITA</t>
+  </si>
+  <si>
+    <t>NIVEL DE EMPLEO</t>
+  </si>
+  <si>
+    <t>IPC</t>
   </si>
 </sst>
 </file>
@@ -477,23 +486,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877231C2-CB0C-465A-93F3-52845EBCB22E}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -521,9 +522,17 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>2010</v>
       </c>
@@ -553,7 +562,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2011</v>
       </c>
@@ -583,7 +592,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>2012</v>
       </c>
@@ -613,7 +622,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>2013</v>
       </c>
@@ -643,7 +652,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>2014</v>
       </c>
@@ -673,7 +682,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -702,7 +711,7 @@
         <v>3.9684746976671881</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -731,7 +740,7 @@
         <v>1.7333434555174041</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -760,7 +769,7 @@
         <v>0.41819744655699487</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -789,7 +798,7 @@
         <v>-0.22243662371517581</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -818,7 +827,7 @@
         <v>0.26641633652423496</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -847,7 +856,7 @@
         <v>-0.33859915765783999</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -876,7 +885,7 @@
         <v>0.14143075908647001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2022</v>
       </c>
